--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,39 +43,24 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -85,114 +70,120 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>san</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
@@ -200,6 +191,12 @@
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
   <si>
     <t>corona</t>
@@ -560,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.6472602739726028</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -779,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7207792207792207</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="D6">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>361</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -829,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.625</v>
+        <v>0.2433862433862434</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5882352941176471</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,321 +944,201 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8083333333333333</v>
+      </c>
+      <c r="L9">
+        <v>97</v>
+      </c>
+      <c r="M9">
+        <v>97</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L10">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="L11">
+        <v>41</v>
+      </c>
+      <c r="M11">
+        <v>41</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0.7887323943661971</v>
+      </c>
+      <c r="L12">
+        <v>112</v>
+      </c>
+      <c r="M12">
+        <v>112</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L13">
+        <v>45</v>
+      </c>
+      <c r="M13">
+        <v>45</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K9">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L9">
-        <v>43</v>
-      </c>
-      <c r="M9">
-        <v>43</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.463519313304721</v>
-      </c>
-      <c r="C10">
-        <v>108</v>
-      </c>
-      <c r="D10">
-        <v>108</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>125</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L10">
-        <v>24</v>
-      </c>
-      <c r="M10">
-        <v>24</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2875</v>
-      </c>
-      <c r="C11">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>57</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K14">
+        <v>0.7734375</v>
+      </c>
+      <c r="L14">
+        <v>99</v>
+      </c>
+      <c r="M14">
+        <v>99</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L11">
-        <v>42</v>
-      </c>
-      <c r="M11">
-        <v>42</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>66</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.8125</v>
-      </c>
-      <c r="L12">
-        <v>13</v>
-      </c>
-      <c r="M12">
-        <v>13</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2090909090909091</v>
-      </c>
-      <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>87</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L13">
-        <v>42</v>
-      </c>
-      <c r="M13">
-        <v>42</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1129032258064516</v>
-      </c>
-      <c r="C14">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>165</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L14">
-        <v>30</v>
-      </c>
-      <c r="M14">
-        <v>30</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.76</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L15">
+        <v>63</v>
+      </c>
+      <c r="M15">
+        <v>63</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>19</v>
-      </c>
-      <c r="M15">
-        <v>19</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1273,21 +1150,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.72</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1299,21 +1176,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7068965517241379</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L18">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1325,21 +1202,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1351,21 +1228,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.7058823529411765</v>
+        <v>0.66</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1377,21 +1254,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.684931506849315</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1403,21 +1280,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1429,21 +1306,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6538461538461539</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1455,21 +1332,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6338028169014085</v>
+        <v>0.5744125326370757</v>
       </c>
       <c r="L24">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="M24">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1481,21 +1358,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>78</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1507,47 +1384,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L26">
+        <v>45</v>
+      </c>
+      <c r="M26">
+        <v>45</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>44</v>
-      </c>
-      <c r="K26">
-        <v>0.5486111111111112</v>
-      </c>
-      <c r="L26">
-        <v>79</v>
-      </c>
-      <c r="M26">
-        <v>79</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5135135135135135</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1559,21 +1436,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5038759689922481</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L28">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="M28">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1585,21 +1462,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>64</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1611,21 +1488,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4891304347826087</v>
+        <v>0.4686192468619247</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="M30">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1637,21 +1514,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>47</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4571428571428571</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1663,21 +1540,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4545454545454545</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1689,21 +1566,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.4210526315789473</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1715,21 +1592,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.3571428571428572</v>
+        <v>0.375</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1741,21 +1618,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.08133971291866028</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1767,21 +1644,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>192</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.06565656565656566</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1793,73 +1670,73 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.05630630630630631</v>
+        <v>0.0815347721822542</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>419</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.04878048780487805</v>
+        <v>0.07502799552071669</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>390</v>
+        <v>826</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.0380952380952381</v>
+        <v>0.06971153846153846</v>
       </c>
       <c r="L39">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1871,47 +1748,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>303</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.03571428571428571</v>
+        <v>0.04776579352850539</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>270</v>
+        <v>618</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.03051643192488263</v>
+        <v>0.04526748971193416</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1923,85 +1800,189 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>413</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.02956989247311828</v>
+        <v>0.04041570438799076</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N42">
-        <v>0.82</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0.18</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>1083</v>
+        <v>831</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.01027617212588311</v>
+        <v>0.04</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N43">
-        <v>0.7</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0.3</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>1541</v>
+        <v>864</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.006909547738693468</v>
+        <v>0.03517823639774859</v>
       </c>
       <c r="L44">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="N44">
-        <v>0.6899999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="O44">
-        <v>0.3100000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1581</v>
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45">
+        <v>0.03041087026852151</v>
+      </c>
+      <c r="L45">
+        <v>94</v>
+      </c>
+      <c r="M45">
+        <v>110</v>
+      </c>
+      <c r="N45">
+        <v>0.85</v>
+      </c>
+      <c r="O45">
+        <v>0.15</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46">
+        <v>0.02691511387163561</v>
+      </c>
+      <c r="L46">
+        <v>26</v>
+      </c>
+      <c r="M46">
+        <v>28</v>
+      </c>
+      <c r="N46">
+        <v>0.93</v>
+      </c>
+      <c r="O46">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47">
+        <v>0.01816608996539792</v>
+      </c>
+      <c r="L47">
+        <v>21</v>
+      </c>
+      <c r="M47">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O47">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48">
+        <v>0.01693320790216369</v>
+      </c>
+      <c r="L48">
+        <v>54</v>
+      </c>
+      <c r="M48">
+        <v>66</v>
+      </c>
+      <c r="N48">
+        <v>0.82</v>
+      </c>
+      <c r="O48">
+        <v>0.18</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>3135</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,42 +43,54 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
@@ -88,106 +100,88 @@
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>credit</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>help</t>
+    <t>hope</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>essential</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>san</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -557,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6472602739726028</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5833333333333334</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -776,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3003875968992248</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C6">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>361</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>0.9130434782608695</v>
@@ -826,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2433862433862434</v>
+        <v>0.3042635658914729</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>143</v>
+        <v>359</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2281879194630873</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1349206349206349</v>
+        <v>0.2328042328042328</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8083333333333333</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,21 +962,45 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>225</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,21 +1012,45 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.064343163538874</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>349</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>0.803921568627451</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="M11">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1020,21 +1062,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1046,21 +1088,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1072,21 +1114,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7734375</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1098,21 +1140,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7682926829268293</v>
+        <v>0.71875</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1124,21 +1166,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.725</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L16">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1150,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.6886792452830188</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L17">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1176,21 +1218,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6764705882352942</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L18">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="M18">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1202,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K19">
         <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1228,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1254,21 +1296,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6595744680851063</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1280,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6170212765957447</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L22">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M22">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1306,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6111111111111112</v>
+        <v>0.5822454308093995</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1332,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5744125326370757</v>
+        <v>0.5625</v>
       </c>
       <c r="L24">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1358,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5625</v>
+        <v>0.4983050847457627</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1384,47 +1426,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5056179775280899</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L26">
+        <v>44</v>
+      </c>
+      <c r="M26">
+        <v>44</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>45</v>
-      </c>
-      <c r="M26">
-        <v>45</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4823529411764706</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L27">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1436,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>176</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4779661016949153</v>
+        <v>0.4794117647058824</v>
       </c>
       <c r="L28">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="M28">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1462,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4743589743589743</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1488,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4686192468619247</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L30">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1514,21 +1556,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>127</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4615384615384616</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1540,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4520547945205479</v>
+        <v>0.4225941422594142</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1566,21 +1608,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.4418604651162791</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1592,21 +1634,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.375</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1618,21 +1660,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.3142857142857143</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1644,345 +1686,241 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>48</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.09767441860465116</v>
+        <v>0.06950672645739911</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>194</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.0815347721822542</v>
+        <v>0.05401234567901234</v>
       </c>
       <c r="L37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>383</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.07502799552071669</v>
+        <v>0.04565701559020045</v>
       </c>
       <c r="L38">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="M38">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>826</v>
+        <v>857</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.06971153846153846</v>
+        <v>0.03938115330520394</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>387</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.04776579352850539</v>
+        <v>0.02886836027713626</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>618</v>
+        <v>841</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.04526748971193416</v>
+        <v>0.02880258899676376</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>464</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.04041570438799076</v>
+        <v>0.02068252326783868</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>831</v>
+        <v>947</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.04</v>
+        <v>0.01645021645021645</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>864</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.03517823639774859</v>
+        <v>0.01161695447409733</v>
       </c>
       <c r="L44">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="M44">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="N44">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="O44">
-        <v>0.13</v>
+        <v>0.3</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45">
-        <v>0.03041087026852151</v>
-      </c>
-      <c r="L45">
-        <v>94</v>
-      </c>
-      <c r="M45">
-        <v>110</v>
-      </c>
-      <c r="N45">
-        <v>0.85</v>
-      </c>
-      <c r="O45">
-        <v>0.15</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>2997</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K46">
-        <v>0.02691511387163561</v>
-      </c>
-      <c r="L46">
-        <v>26</v>
-      </c>
-      <c r="M46">
-        <v>28</v>
-      </c>
-      <c r="N46">
-        <v>0.93</v>
-      </c>
-      <c r="O46">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K47">
-        <v>0.01816608996539792</v>
-      </c>
-      <c r="L47">
-        <v>21</v>
-      </c>
-      <c r="M47">
-        <v>26</v>
-      </c>
-      <c r="N47">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O47">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K48">
-        <v>0.01693320790216369</v>
-      </c>
-      <c r="L48">
-        <v>54</v>
-      </c>
-      <c r="M48">
-        <v>66</v>
-      </c>
-      <c r="N48">
-        <v>0.82</v>
-      </c>
-      <c r="O48">
-        <v>0.18</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>3135</v>
+        <v>3148</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,18 +43,18 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -73,37 +73,43 @@
     <t>happy</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>special</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>good</t>
@@ -112,63 +118,78 @@
     <t>safety</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
+    <t>credit</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>share</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
@@ -178,19 +199,19 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>san</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
   <si>
     <t>corona</t>
@@ -551,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,7 +583,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -662,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -670,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6944444444444444</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -712,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6301369863013698</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9661016949152542</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -762,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -770,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3733333333333334</v>
+        <v>0.2906976744186047</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -812,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -820,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3042635658914729</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C7">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>359</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +915,13 @@
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8170731707317073</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2328042328042328</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.796875</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L9">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1071428571428571</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1020,37 +1041,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.064343163538874</v>
+        <v>0.07795698924731183</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.7666666666666667</v>
+        <v>0.828125</v>
       </c>
       <c r="L11">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M11">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1062,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1070,13 +1091,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.75</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,13 +1117,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7464788732394366</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1114,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1122,13 +1143,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7241379310344828</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1140,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1148,13 +1169,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.71875</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L15">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="M15">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1166,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1174,13 +1195,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7058823529411765</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1192,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1200,13 +1221,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7021276595744681</v>
+        <v>0.7125</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1218,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1226,13 +1247,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6792452830188679</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L18">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1244,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1252,13 +1273,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1270,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1278,13 +1299,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.62</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1296,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1304,13 +1325,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6190476190476191</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1322,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1330,13 +1351,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5851063829787234</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1348,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1356,13 +1377,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5822454308093995</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1374,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>160</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1382,13 +1403,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5625</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1400,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1408,13 +1429,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.4983050847457627</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L25">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1426,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>148</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1434,13 +1455,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4943820224719101</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1452,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1460,13 +1481,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4888888888888889</v>
+        <v>0.587467362924282</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1478,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>23</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1486,13 +1507,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4794117647058824</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L28">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1504,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1512,13 +1533,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4769230769230769</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1530,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1538,13 +1559,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4743589743589743</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1556,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1564,13 +1585,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4657534246575342</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1582,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1590,13 +1611,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4225941422594142</v>
+        <v>0.4983050847457627</v>
       </c>
       <c r="L32">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="M32">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1608,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1616,13 +1637,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.1732283464566929</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1634,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>105</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1642,13 +1663,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.09090909090909091</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1660,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>380</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1668,13 +1689,13 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.07692307692307693</v>
+        <v>0.4375</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1686,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>384</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1694,25 +1715,25 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.06950672645739911</v>
+        <v>0.4100418410041841</v>
       </c>
       <c r="L36">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="M36">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>830</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1720,25 +1741,25 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.05401234567901234</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>613</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1746,25 +1767,25 @@
         <v>53</v>
       </c>
       <c r="K38">
-        <v>0.04565701559020045</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L38">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N38">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>857</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1772,25 +1793,25 @@
         <v>54</v>
       </c>
       <c r="K39">
-        <v>0.03938115330520394</v>
+        <v>0.1223021582733813</v>
       </c>
       <c r="L39">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="M39">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="N39">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O39">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2049</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1798,25 +1819,25 @@
         <v>55</v>
       </c>
       <c r="K40">
-        <v>0.02886836027713626</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>841</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1824,25 +1845,25 @@
         <v>56</v>
       </c>
       <c r="K41">
-        <v>0.02880258899676376</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L41">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="M41">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="N41">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>3001</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1850,25 +1871,25 @@
         <v>57</v>
       </c>
       <c r="K42">
-        <v>0.02068252326783868</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L42">
         <v>20</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>947</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1876,25 +1897,25 @@
         <v>58</v>
       </c>
       <c r="K43">
-        <v>0.01645021645021645</v>
+        <v>0.06718924972004479</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="N43">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
       <c r="O43">
-        <v>0.24</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>1136</v>
+        <v>833</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1902,25 +1923,207 @@
         <v>59</v>
       </c>
       <c r="K44">
-        <v>0.01161695447409733</v>
+        <v>0.06656346749226007</v>
       </c>
       <c r="L44">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M44">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N44">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="O44">
-        <v>0.3</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>3148</v>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45">
+        <v>0.05993340732519423</v>
+      </c>
+      <c r="L45">
+        <v>54</v>
+      </c>
+      <c r="M45">
+        <v>54</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46">
+        <v>0.05420991926182238</v>
+      </c>
+      <c r="L46">
+        <v>47</v>
+      </c>
+      <c r="M46">
+        <v>47</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47">
+        <v>0.04353932584269663</v>
+      </c>
+      <c r="L47">
+        <v>93</v>
+      </c>
+      <c r="M47">
+        <v>100</v>
+      </c>
+      <c r="N47">
+        <v>0.93</v>
+      </c>
+      <c r="O47">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48">
+        <v>0.04320987654320987</v>
+      </c>
+      <c r="L48">
+        <v>21</v>
+      </c>
+      <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49">
+        <v>0.02682611506140918</v>
+      </c>
+      <c r="L49">
+        <v>83</v>
+      </c>
+      <c r="M49">
+        <v>96</v>
+      </c>
+      <c r="N49">
+        <v>0.86</v>
+      </c>
+      <c r="O49">
+        <v>0.14</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50">
+        <v>0.02585315408479835</v>
+      </c>
+      <c r="L50">
+        <v>25</v>
+      </c>
+      <c r="M50">
+        <v>26</v>
+      </c>
+      <c r="N50">
+        <v>0.96</v>
+      </c>
+      <c r="O50">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51">
+        <v>0.02387684574300974</v>
+      </c>
+      <c r="L51">
+        <v>76</v>
+      </c>
+      <c r="M51">
+        <v>94</v>
+      </c>
+      <c r="N51">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O51">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3107</v>
       </c>
     </row>
   </sheetData>
